--- a/Data/EC/NIT-8904814456.xlsx
+++ b/Data/EC/NIT-8904814456.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E110DF87-371A-47AE-9A08-FF087425C5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF0DA3FC-4488-4FAA-BAB3-FB882B5F3F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{957B6D23-666E-435D-A02A-B008BD758846}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85B4C950-E15B-4066-B183-33E8B62A9052}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,130 +71,133 @@
     <t>JHON JAIRO TAPIAS FRANCO</t>
   </si>
   <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -293,7 +296,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -306,9 +311,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -508,23 +511,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +555,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB57250-6E75-9532-4B9C-354DFE88A698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DCC08C-300C-1A5A-7549-B554CAB85560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,8 +962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98282EF-FF88-4FFD-97F0-4E637F192EB8}">
-  <dimension ref="B2:J63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126ED894-55B3-4257-87F4-8BE9178CDB46}">
+  <dimension ref="B2:J64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -984,7 +987,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1029,7 +1032,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1061,12 +1064,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3106404</v>
+        <v>3180366</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1077,17 +1080,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1114,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -2067,42 +2070,54 @@
       <c r="J56" s="20"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="22" t="s">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="24">
-        <v>73962</v>
-      </c>
-      <c r="G57" s="24">
-        <v>1849052</v>
-      </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="H62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="F57" s="18">
+        <v>73962</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1849052</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="24">
+        <v>73962</v>
+      </c>
+      <c r="G58" s="24">
+        <v>1849052</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C63" s="32"/>
       <c r="H63" s="1" t="s">
@@ -2111,12 +2126,23 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="H64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="H64:J64"/>
     <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H62:J62"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
